--- a/시장분석용_정보/시장분석용_4725033000.xlsx
+++ b/시장분석용_정보/시장분석용_4725033000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV19"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>996</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -696,10 +600,10 @@
         <v>5058207445</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4725033000</v>
@@ -708,7 +612,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>4946762</v>
@@ -720,117 +624,69 @@
         <v>320333</v>
       </c>
       <c r="O2">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>96.16</v>
+        <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>4.15</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>95.84999999999999</v>
       </c>
-      <c r="R2">
-        <v>0.31</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>3.84</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>95.84999999999999</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>4.15</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>95.84999999999999</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>4.15</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>95.84999999999999</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>95.84999999999999</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>4.15</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>3045</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -842,10 +698,10 @@
         <v>5058207445</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4725033000</v>
@@ -854,7 +710,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>4993629</v>
@@ -866,7 +722,7 @@
         <v>489750</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -875,31 +731,31 @@
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>0.31</v>
       </c>
-      <c r="S3">
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>99.69</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -911,72 +767,24 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>99.69</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
         <v>0.31</v>
       </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>99.69</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>99.69</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0.31</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>7072</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202004</v>
@@ -988,10 +796,10 @@
         <v>5058207445</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4725033000</v>
@@ -1000,7 +808,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>6421767</v>
@@ -1012,37 +820,37 @@
         <v>322173</v>
       </c>
       <c r="O4">
-        <v>37.95</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>62.05</v>
+        <v>98.39</v>
       </c>
       <c r="Q4">
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>37.64</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>36.94</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>63.06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1051,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>98.39</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1063,66 +871,18 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>98.39</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
         <v>1.61</v>
       </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>98.39</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>1.61</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>9097</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202005</v>
@@ -1134,10 +894,10 @@
         <v>5058207445</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4725033000</v>
@@ -1146,7 +906,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>7611186</v>
@@ -1158,17 +918,17 @@
         <v>501377</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>50.23</v>
+      </c>
+      <c r="Q5">
         <v>3.23</v>
       </c>
-      <c r="P5">
-        <v>96.77</v>
-      </c>
-      <c r="Q5">
+      <c r="R5">
         <v>46.54</v>
       </c>
-      <c r="R5">
-        <v>3.23</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
@@ -1182,25 +942,25 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>50.23</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>96.77</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>53.46</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>46.54</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1209,66 +969,18 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>50.23</v>
-      </c>
-      <c r="AG5">
-        <v>3.23</v>
-      </c>
-      <c r="AH5">
-        <v>46.54</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>53.46</v>
-      </c>
-      <c r="AS5">
-        <v>46.54</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>13186</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202007</v>
@@ -1280,10 +992,10 @@
         <v>5058207445</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4725033000</v>
@@ -1292,7 +1004,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>4888477</v>
@@ -1304,7 +1016,7 @@
         <v>318470</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1316,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>87.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>11.69</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0.42</v>
@@ -1331,90 +1043,42 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>99.58</v>
       </c>
       <c r="Y6">
-        <v>99.58</v>
+        <v>0</v>
       </c>
       <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>11.69</v>
+      </c>
+      <c r="AD6">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
         <v>0.42</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0.42</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>99.58</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>11.69</v>
-      </c>
-      <c r="AT6">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0.42</v>
-      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>15236</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202008</v>
@@ -1426,10 +1090,10 @@
         <v>5058207445</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4725033000</v>
@@ -1438,7 +1102,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>1911537</v>
@@ -1450,16 +1114,16 @@
         <v>171600</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1483,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1492,75 +1156,27 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>98.67</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.33</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>98.67</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>1.33</v>
-      </c>
-      <c r="AT7">
-        <v>98.67</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>17276</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202009</v>
@@ -1572,10 +1188,10 @@
         <v>5058207445</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4725033000</v>
@@ -1584,7 +1200,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>7320682</v>
@@ -1596,7 +1212,7 @@
         <v>438233</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1605,108 +1221,60 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>24.46</v>
       </c>
       <c r="S8">
-        <v>75.3</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>24.46</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
+        <v>75.54000000000001</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>99.76000000000001</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>0.24</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>24.46</v>
-      </c>
-      <c r="Y8">
-        <v>75.3</v>
-      </c>
-      <c r="Z8">
-        <v>0.24</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>24.46</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>75.54000000000001</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>99.76000000000001</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0.24</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>19328</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202010</v>
@@ -1718,10 +1286,10 @@
         <v>5058207445</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4725033000</v>
@@ -1730,7 +1298,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>5310705</v>
@@ -1742,29 +1310,29 @@
         <v>230980</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>100</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0.35</v>
-      </c>
-      <c r="S9">
-        <v>98.51000000000001</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>1.15</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
       <c r="W9">
         <v>0</v>
       </c>
@@ -1772,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1787,72 +1355,24 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>98.16</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>100</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>98.16</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
         <v>1.84</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>27479</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202102</v>
@@ -1864,10 +1384,10 @@
         <v>5058207445</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4725033000</v>
@@ -1876,7 +1396,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>50620</v>
@@ -1888,50 +1408,50 @@
         <v>5000</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>32</v>
       </c>
-      <c r="S10">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>68</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>100</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
       <c r="AD10">
         <v>0</v>
       </c>
@@ -1939,66 +1459,18 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>68</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
         <v>32</v>
       </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>68</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>32</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>29518</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202103</v>
@@ -2010,10 +1482,10 @@
         <v>5058207445</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4725033000</v>
@@ -2022,7 +1494,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>364938</v>
@@ -2034,7 +1506,7 @@
         <v>22643</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>40.48</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2043,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>4.71</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>54.81</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2055,96 +1527,48 @@
         <v>0</v>
       </c>
       <c r="V11">
+        <v>59.52</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
         <v>40.48</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
         <v>59.52</v>
       </c>
-      <c r="Z11">
-        <v>40.48</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>40.48</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>59.52</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>40.48</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>59.52</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>31567</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202104</v>
@@ -2156,10 +1580,10 @@
         <v>5058207445</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4725033000</v>
@@ -2168,7 +1592,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>56153</v>
@@ -2180,117 +1604,69 @@
         <v>5520</v>
       </c>
       <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>100</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>100</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>100</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>100</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>100</v>
-      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>33605</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202105</v>
@@ -2302,10 +1678,10 @@
         <v>5058207445</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4725033000</v>
@@ -2314,7 +1690,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>4354745</v>
@@ -2326,29 +1702,29 @@
         <v>215008</v>
       </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>100</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>99.25</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0.75</v>
-      </c>
       <c r="W13">
         <v>0</v>
       </c>
@@ -2356,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>99.25</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -2371,72 +1747,24 @@
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>98.86</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>100</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>98.86</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
         <v>1.14</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>39744</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>202108</v>
@@ -2448,10 +1776,10 @@
         <v>5058207445</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>4725033000</v>
@@ -2460,7 +1788,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>13750224</v>
@@ -2472,7 +1800,7 @@
         <v>915060</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2481,108 +1809,60 @@
         <v>0</v>
       </c>
       <c r="R14">
+        <v>37.08</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>62.92</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>37.08</v>
+      </c>
+      <c r="AD14">
         <v>62.45</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
         <v>0.46</v>
       </c>
-      <c r="U14">
-        <v>37.08</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>99.54000000000001</v>
-      </c>
-      <c r="Z14">
-        <v>0.46</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>37.08</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>62.92</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>37.08</v>
-      </c>
-      <c r="AT14">
-        <v>62.45</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0.46</v>
-      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>43838</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>202110</v>
@@ -2594,10 +1874,10 @@
         <v>5058207445</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>4725033000</v>
@@ -2606,7 +1886,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <v>38121</v>
@@ -2618,40 +1898,40 @@
         <v>3760</v>
       </c>
       <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <v>100</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>57.45</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>42.55</v>
-      </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>57.45</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>42.55</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2669,66 +1949,18 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
         <v>100</v>
       </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>100</v>
-      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>45881</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>202111</v>
@@ -2740,10 +1972,10 @@
         <v>5058207445</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>4725033000</v>
@@ -2752,7 +1984,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>332728</v>
@@ -2764,19 +1996,19 @@
         <v>15700</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>12.04</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="R16">
-        <v>95.54000000000001</v>
+        <v>60.19</v>
       </c>
       <c r="S16">
-        <v>4.46</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2785,16 +2017,16 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>23.31</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>4.46</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>95.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2803,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>12.04</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -2815,66 +2047,18 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>12.04</v>
-      </c>
-      <c r="AG16">
-        <v>4.46</v>
-      </c>
-      <c r="AH16">
-        <v>60.19</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
         <v>23.31</v>
       </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="AS16">
-        <v>12.04</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>23.31</v>
-      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>47925</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>202112</v>
@@ -2886,10 +2070,10 @@
         <v>5058207445</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>4725033000</v>
@@ -2898,7 +2082,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L17">
         <v>17133820</v>
@@ -2910,7 +2094,7 @@
         <v>1105397</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2931,96 +2115,48 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>100</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>25.15</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>25.15</v>
+      </c>
+      <c r="AD17">
+        <v>74.76000000000001</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
         <v>0.1</v>
       </c>
-      <c r="Z17">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>74.84999999999999</v>
-      </c>
-      <c r="AM17">
-        <v>25.15</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>25.15</v>
-      </c>
-      <c r="AT17">
-        <v>74.76000000000001</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>52011</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>202202</v>
@@ -3032,10 +2168,10 @@
         <v>5058207445</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>4725033000</v>
@@ -3044,7 +2180,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>105996</v>
@@ -3056,16 +2192,16 @@
         <v>3764</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>42.08</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>79.22</v>
+        <v>15.25</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -3074,99 +2210,51 @@
         <v>0</v>
       </c>
       <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>42.67</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>15.3</v>
+      </c>
+      <c r="AC18">
+        <v>42.03</v>
+      </c>
+      <c r="AD18">
         <v>20.72</v>
       </c>
-      <c r="V18">
-        <v>0.05</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>20.72</v>
-      </c>
-      <c r="Y18">
-        <v>37.25</v>
-      </c>
-      <c r="Z18">
-        <v>42.03</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>42.08</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>15.25</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>42.67</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>15.3</v>
-      </c>
-      <c r="AS18">
-        <v>42.03</v>
-      </c>
-      <c r="AT18">
-        <v>20.72</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
         <v>21.94</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>58158</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>202205</v>
@@ -3178,10 +2266,10 @@
         <v>5058207445</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>4725033000</v>
@@ -3190,7 +2278,7 @@
         <v>386.1363636363637</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L19">
         <v>10395233</v>
@@ -3202,105 +2290,57 @@
         <v>396306</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>15.14</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>11.68</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>84.86</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>15.14</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
         <v>84.27</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0.26</v>
-      </c>
-      <c r="Y19">
-        <v>84.27</v>
-      </c>
-      <c r="Z19">
-        <v>15.47</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
       <c r="AF19">
-        <v>15.14</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>84.86</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>15.14</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>84.27</v>
-      </c>
-      <c r="AV19">
         <v>0.59</v>
       </c>
     </row>
